--- a/admin/web/files/Perevody.xlsx
+++ b/admin/web/files/Perevody.xlsx
@@ -1012,12 +1012,6 @@
     <t>С момента добавления результатов мировой рекорд по фигуре {figureTitle} был обновлён. В связи с этим, в таблице выводится два рейтинга</t>
   </si>
   <si>
-    <t>Начальный рейтинг - рейтинг на момент добавления результата</t>
-  </si>
-  <si>
-    <t>Актуальный рейтинг - процент отставания от текущего мирового рекорда</t>
-  </si>
-  <si>
     <t>Actual rating - a lag percantage from the current world record</t>
   </si>
   <si>
@@ -2652,6 +2646,12 @@
   </si>
   <si>
     <t>Укажите всю необходимую информацию. Например, добавьте ссылку на результаты чемпионата и описание класса соревнований</t>
+  </si>
+  <si>
+    <t>"Начальный рейтинг" - рейтинг на момент добавления результата</t>
+  </si>
+  <si>
+    <t>"Актуальный рейтинг" - процент отставания от текущего мирового рекорда</t>
   </si>
 </sst>
 </file>
@@ -3524,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3608,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
@@ -3663,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
@@ -3784,7 +3784,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
@@ -3795,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30">
@@ -3806,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3883,7 +3883,7 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3894,7 +3894,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3916,7 +3916,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4180,7 +4180,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4191,7 +4191,7 @@
         <v>101</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4213,7 +4213,7 @@
         <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30">
@@ -4224,7 +4224,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4235,7 +4235,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4246,7 +4246,7 @@
         <v>107</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4279,7 +4279,7 @@
         <v>112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
@@ -4290,7 +4290,7 @@
         <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4301,7 +4301,7 @@
         <v>114</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4389,7 +4389,7 @@
         <v>128</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4400,7 +4400,7 @@
         <v>129</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4411,7 +4411,7 @@
         <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4422,7 +4422,7 @@
         <v>131</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4444,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4466,7 +4466,7 @@
         <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4488,7 +4488,7 @@
         <v>139</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30">
@@ -4499,7 +4499,7 @@
         <v>140</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4532,7 +4532,7 @@
         <v>145</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4543,7 +4543,7 @@
         <v>146</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4554,7 +4554,7 @@
         <v>147</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>154</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4642,7 +4642,7 @@
         <v>161</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4653,7 +4653,7 @@
         <v>162</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4664,7 +4664,7 @@
         <v>163</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4675,7 +4675,7 @@
         <v>164</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4686,7 +4686,7 @@
         <v>165</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4708,7 +4708,7 @@
         <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4719,7 +4719,7 @@
         <v>169</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30">
@@ -4730,7 +4730,7 @@
         <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4741,7 +4741,7 @@
         <v>171</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4752,7 +4752,7 @@
         <v>172</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4763,7 +4763,7 @@
         <v>173</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30">
@@ -4796,7 +4796,7 @@
         <v>178</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
@@ -4829,7 +4829,7 @@
         <v>183</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4840,7 +4840,7 @@
         <v>184</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4851,7 +4851,7 @@
         <v>185</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4884,7 +4884,7 @@
         <v>190</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4994,7 +4994,7 @@
         <v>208</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>211</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5027,7 +5027,7 @@
         <v>212</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5093,7 +5093,7 @@
         <v>223</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5115,7 +5115,7 @@
         <v>226</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5126,7 +5126,7 @@
         <v>227</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5137,7 +5137,7 @@
         <v>228</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5159,7 +5159,7 @@
         <v>231</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5203,7 +5203,7 @@
         <v>238</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5225,7 +5225,7 @@
         <v>241</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>242</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5247,7 +5247,7 @@
         <v>243</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5291,7 +5291,7 @@
         <v>250</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5313,7 +5313,7 @@
         <v>253</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30">
@@ -5324,7 +5324,7 @@
         <v>254</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5379,7 +5379,7 @@
         <v>263</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5390,7 +5390,7 @@
         <v>264</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5423,7 +5423,7 @@
         <v>269</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5478,7 +5478,7 @@
         <v>278</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30">
@@ -5489,7 +5489,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30">
@@ -5522,7 +5522,7 @@
         <v>284</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30">
@@ -5533,7 +5533,7 @@
         <v>285</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>288</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>291</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>293</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30">
@@ -5632,7 +5632,7 @@
         <v>300</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>301</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="45">
@@ -5654,7 +5654,7 @@
         <v>302</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30">
@@ -5665,7 +5665,7 @@
         <v>303</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5742,7 +5742,7 @@
         <v>316</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5830,7 +5830,7 @@
         <v>331</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="30">
@@ -5838,10 +5838,10 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>332</v>
+        <v>877</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30">
@@ -5849,10 +5849,10 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>333</v>
+        <v>878</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="45">
@@ -5860,10 +5860,10 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5871,10 +5871,10 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5882,10 +5882,10 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5893,10 +5893,10 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="30">
@@ -5904,10 +5904,10 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5915,10 +5915,10 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5926,10 +5926,10 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5937,10 +5937,10 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5948,10 +5948,10 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5959,10 +5959,10 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5970,10 +5970,10 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5981,10 +5981,10 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="30">
@@ -5992,10 +5992,10 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6003,10 +6003,10 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30">
@@ -6014,10 +6014,10 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6025,10 +6025,10 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6036,10 +6036,10 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30">
@@ -6047,10 +6047,10 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6058,10 +6058,10 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6069,10 +6069,10 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6080,10 +6080,10 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6091,10 +6091,10 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6102,10 +6102,10 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6113,10 +6113,10 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6124,10 +6124,10 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6135,10 +6135,10 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6146,10 +6146,10 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6157,10 +6157,10 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6168,10 +6168,10 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6179,10 +6179,10 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6190,10 +6190,10 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6201,10 +6201,10 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6212,7 +6212,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>31</v>
@@ -6223,10 +6223,10 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6234,10 +6234,10 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6245,10 +6245,10 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6256,10 +6256,10 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6267,10 +6267,10 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6278,10 +6278,10 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6289,10 +6289,10 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30">
@@ -6300,10 +6300,10 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="90">
@@ -6311,10 +6311,10 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="30">
@@ -6322,10 +6322,10 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6333,10 +6333,10 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6344,10 +6344,10 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6355,10 +6355,10 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6366,10 +6366,10 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6377,10 +6377,10 @@
         <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6388,10 +6388,10 @@
         <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6399,10 +6399,10 @@
         <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6410,10 +6410,10 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6421,10 +6421,10 @@
         <v>263</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6432,10 +6432,10 @@
         <v>264</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6443,10 +6443,10 @@
         <v>265</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6454,10 +6454,10 @@
         <v>266</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6465,10 +6465,10 @@
         <v>267</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6476,10 +6476,10 @@
         <v>268</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6487,10 +6487,10 @@
         <v>269</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6498,10 +6498,10 @@
         <v>270</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="30">
@@ -6509,10 +6509,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6520,10 +6520,10 @@
         <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6531,10 +6531,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6542,10 +6542,10 @@
         <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6553,10 +6553,10 @@
         <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6564,10 +6564,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6575,10 +6575,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6586,10 +6586,10 @@
         <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6597,10 +6597,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6608,10 +6608,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6619,10 +6619,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6630,10 +6630,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6641,10 +6641,10 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6652,10 +6652,10 @@
         <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6663,10 +6663,10 @@
         <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6674,10 +6674,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6685,10 +6685,10 @@
         <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6696,10 +6696,10 @@
         <v>288</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6707,10 +6707,10 @@
         <v>289</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6718,10 +6718,10 @@
         <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="90">
@@ -6729,10 +6729,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="45">
@@ -6740,10 +6740,10 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6751,10 +6751,10 @@
         <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6762,10 +6762,10 @@
         <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6773,10 +6773,10 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6784,10 +6784,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6795,10 +6795,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="60">
@@ -6806,10 +6806,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="60">
@@ -6817,10 +6817,10 @@
         <v>299</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="75">
@@ -6828,10 +6828,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="30">
@@ -6839,10 +6839,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="90">
@@ -6850,10 +6850,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30">
@@ -6861,10 +6861,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6872,10 +6872,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30">
@@ -6883,10 +6883,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6894,10 +6894,10 @@
         <v>306</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6905,10 +6905,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6916,10 +6916,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6927,10 +6927,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6938,10 +6938,10 @@
         <v>310</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="45">
@@ -6949,10 +6949,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6960,10 +6960,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6971,10 +6971,10 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="60">
@@ -6982,10 +6982,10 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="60">
@@ -6993,10 +6993,10 @@
         <v>315</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="90">
@@ -7004,10 +7004,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="45">
@@ -7015,10 +7015,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -7026,10 +7026,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -7037,10 +7037,10 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -7048,10 +7048,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -7059,10 +7059,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="45">
@@ -7070,10 +7070,10 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30">
@@ -7081,10 +7081,10 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -7092,10 +7092,10 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -7103,10 +7103,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -7114,10 +7114,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -7125,10 +7125,10 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -7136,10 +7136,10 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -7147,10 +7147,10 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -7158,10 +7158,10 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -7169,10 +7169,10 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -7180,10 +7180,10 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -7191,10 +7191,10 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -7202,10 +7202,10 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -7213,10 +7213,10 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -7224,10 +7224,10 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -7235,10 +7235,10 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="45">
@@ -7246,10 +7246,10 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -7257,10 +7257,10 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -7268,10 +7268,10 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -7279,10 +7279,10 @@
         <v>341</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="30">
@@ -7290,10 +7290,10 @@
         <v>342</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="45">
@@ -7301,10 +7301,10 @@
         <v>343</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -7312,10 +7312,10 @@
         <v>344</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -7323,10 +7323,10 @@
         <v>345</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -7334,10 +7334,10 @@
         <v>346</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -7345,10 +7345,10 @@
         <v>347</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -7356,10 +7356,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -7367,10 +7367,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -7378,10 +7378,10 @@
         <v>350</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -7389,10 +7389,10 @@
         <v>351</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -7400,10 +7400,10 @@
         <v>352</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -7411,10 +7411,10 @@
         <v>353</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -7422,10 +7422,10 @@
         <v>354</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -7433,10 +7433,10 @@
         <v>355</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -7444,10 +7444,10 @@
         <v>356</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -7455,10 +7455,10 @@
         <v>357</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7466,10 +7466,10 @@
         <v>358</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -7477,10 +7477,10 @@
         <v>359</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -7488,10 +7488,10 @@
         <v>360</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -7499,10 +7499,10 @@
         <v>361</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -7510,10 +7510,10 @@
         <v>362</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -7521,10 +7521,10 @@
         <v>363</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -7532,10 +7532,10 @@
         <v>364</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -7543,10 +7543,10 @@
         <v>365</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="60">
@@ -7554,10 +7554,10 @@
         <v>366</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="30">
@@ -7565,10 +7565,10 @@
         <v>367</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="45">
@@ -7576,10 +7576,10 @@
         <v>368</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -7587,10 +7587,10 @@
         <v>369</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7598,10 +7598,10 @@
         <v>370</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7609,10 +7609,10 @@
         <v>371</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7620,10 +7620,10 @@
         <v>372</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7631,10 +7631,10 @@
         <v>373</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45">
@@ -7642,10 +7642,10 @@
         <v>374</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7653,10 +7653,10 @@
         <v>375</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="30">
@@ -7664,10 +7664,10 @@
         <v>376</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7675,10 +7675,10 @@
         <v>377</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7686,10 +7686,10 @@
         <v>378</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7697,10 +7697,10 @@
         <v>379</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="45">
@@ -7708,10 +7708,10 @@
         <v>380</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7719,10 +7719,10 @@
         <v>381</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="30">
@@ -7730,10 +7730,10 @@
         <v>382</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="30">
@@ -7741,10 +7741,10 @@
         <v>383</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="45">
@@ -7752,10 +7752,10 @@
         <v>384</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7763,10 +7763,10 @@
         <v>385</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="30">
@@ -7774,10 +7774,10 @@
         <v>386</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30">
@@ -7785,10 +7785,10 @@
         <v>387</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="30">
@@ -7796,10 +7796,10 @@
         <v>388</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="75">
@@ -7807,10 +7807,10 @@
         <v>389</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7818,10 +7818,10 @@
         <v>390</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="30">
@@ -7829,10 +7829,10 @@
         <v>391</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7840,10 +7840,10 @@
         <v>392</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7851,10 +7851,10 @@
         <v>393</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7862,10 +7862,10 @@
         <v>394</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7873,10 +7873,10 @@
         <v>395</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7884,10 +7884,10 @@
         <v>396</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7895,10 +7895,10 @@
         <v>397</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7906,10 +7906,10 @@
         <v>398</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7917,10 +7917,10 @@
         <v>399</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7928,10 +7928,10 @@
         <v>400</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7939,10 +7939,10 @@
         <v>401</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7950,10 +7950,10 @@
         <v>402</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7961,10 +7961,10 @@
         <v>403</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7972,10 +7972,10 @@
         <v>404</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7983,10 +7983,10 @@
         <v>405</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7994,10 +7994,10 @@
         <v>406</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -8005,10 +8005,10 @@
         <v>407</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -8016,10 +8016,10 @@
         <v>408</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -8027,10 +8027,10 @@
         <v>409</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -8038,10 +8038,10 @@
         <v>410</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -8049,10 +8049,10 @@
         <v>411</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -8060,10 +8060,10 @@
         <v>412</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8071,7 +8071,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>31</v>
@@ -8082,10 +8082,10 @@
         <v>414</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8093,10 +8093,10 @@
         <v>415</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -8104,10 +8104,10 @@
         <v>416</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -8115,10 +8115,10 @@
         <v>417</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -8126,10 +8126,10 @@
         <v>418</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -8137,10 +8137,10 @@
         <v>419</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -8148,10 +8148,10 @@
         <v>420</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -8159,10 +8159,10 @@
         <v>421</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -8170,10 +8170,10 @@
         <v>422</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -8181,10 +8181,10 @@
         <v>423</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -8192,10 +8192,10 @@
         <v>424</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -8203,10 +8203,10 @@
         <v>425</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -8214,10 +8214,10 @@
         <v>426</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -8225,10 +8225,10 @@
         <v>427</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -8236,10 +8236,10 @@
         <v>428</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -8247,10 +8247,10 @@
         <v>429</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -8258,7 +8258,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>292</v>
@@ -8269,10 +8269,10 @@
         <v>431</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -8280,10 +8280,10 @@
         <v>432</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -8291,10 +8291,10 @@
         <v>433</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -8302,10 +8302,10 @@
         <v>434</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -8313,10 +8313,10 @@
         <v>435</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -8324,10 +8324,10 @@
         <v>436</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -8335,10 +8335,10 @@
         <v>437</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -8346,10 +8346,10 @@
         <v>438</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -8357,10 +8357,10 @@
         <v>439</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -8368,10 +8368,10 @@
         <v>440</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -8379,10 +8379,10 @@
         <v>441</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -8390,10 +8390,10 @@
         <v>442</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
